--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Erbb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.44310084380693</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H2">
-        <v>1.44310084380693</v>
+        <v>0.404995</v>
       </c>
       <c r="I2">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="J2">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.50790399962251</v>
+        <v>1.784940333333333</v>
       </c>
       <c r="N2">
-        <v>1.50790399962251</v>
+        <v>5.354821</v>
       </c>
       <c r="O2">
-        <v>0.2017100704643079</v>
+        <v>0.2226931997744963</v>
       </c>
       <c r="P2">
-        <v>0.2017100704643079</v>
+        <v>0.2226931997744964</v>
       </c>
       <c r="Q2">
-        <v>2.176057534235089</v>
+        <v>0.2409639700994445</v>
       </c>
       <c r="R2">
-        <v>2.176057534235089</v>
+        <v>2.168675730895</v>
       </c>
       <c r="S2">
-        <v>0.0009725995475348974</v>
+        <v>9.631195352813452E-05</v>
       </c>
       <c r="T2">
-        <v>0.0009725995475348974</v>
+        <v>9.631195352813454E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.44310084380693</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H3">
-        <v>1.44310084380693</v>
+        <v>0.404995</v>
       </c>
       <c r="I3">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="J3">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.51059263684639</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N3">
-        <v>3.51059263684639</v>
+        <v>10.727147</v>
       </c>
       <c r="O3">
-        <v>0.4696067444127991</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="P3">
-        <v>0.4696067444127991</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="Q3">
-        <v>5.066139196495421</v>
+        <v>0.4827156554738889</v>
       </c>
       <c r="R3">
-        <v>5.066139196495421</v>
+        <v>4.344440899265</v>
       </c>
       <c r="S3">
-        <v>0.002264335667941</v>
+        <v>0.0001929387524538108</v>
       </c>
       <c r="T3">
-        <v>0.002264335667941</v>
+        <v>0.0001929387524538108</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,185 +652,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.44310084380693</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H4">
-        <v>1.44310084380693</v>
+        <v>0.404995</v>
       </c>
       <c r="I4">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="J4">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.45710433948401</v>
+        <v>0.02040433333333333</v>
       </c>
       <c r="N4">
-        <v>2.45710433948401</v>
+        <v>0.061213</v>
       </c>
       <c r="O4">
-        <v>0.328683185122893</v>
+        <v>0.002545690852746758</v>
       </c>
       <c r="P4">
-        <v>0.328683185122893</v>
+        <v>0.002545690852746758</v>
       </c>
       <c r="Q4">
-        <v>3.545849345631044</v>
+        <v>0.002754550992777778</v>
       </c>
       <c r="R4">
-        <v>3.545849345631044</v>
+        <v>0.024790958935</v>
       </c>
       <c r="S4">
-        <v>0.001584834690687497</v>
+        <v>1.100978652940537E-06</v>
       </c>
       <c r="T4">
-        <v>0.001584834690687497</v>
+        <v>1.100978652940537E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>56.7501948198675</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H5">
-        <v>56.7501948198675</v>
+        <v>0.404995</v>
       </c>
       <c r="I5">
-        <v>0.1896169506972835</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="J5">
-        <v>0.1896169506972835</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.50790399962251</v>
+        <v>0.020115</v>
       </c>
       <c r="N5">
-        <v>1.50790399962251</v>
+        <v>0.060345</v>
       </c>
       <c r="O5">
-        <v>0.2017100704643079</v>
+        <v>0.002509592970594532</v>
       </c>
       <c r="P5">
-        <v>0.2017100704643079</v>
+        <v>0.002509592970594532</v>
       </c>
       <c r="Q5">
-        <v>85.57384574823486</v>
+        <v>0.002715491475</v>
       </c>
       <c r="R5">
-        <v>85.57384574823486</v>
+        <v>0.024439423275</v>
       </c>
       <c r="S5">
-        <v>0.03824764848637625</v>
+        <v>1.085366781757089E-06</v>
       </c>
       <c r="T5">
-        <v>0.03824764848637625</v>
+        <v>1.085366781757089E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>56.7501948198675</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H6">
-        <v>56.7501948198675</v>
+        <v>0.404995</v>
       </c>
       <c r="I6">
-        <v>0.1896169506972835</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="J6">
-        <v>0.1896169506972835</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.51059263684639</v>
+        <v>2.614068666666667</v>
       </c>
       <c r="N6">
-        <v>3.51059263684639</v>
+        <v>7.842206</v>
       </c>
       <c r="O6">
-        <v>0.4696067444127991</v>
+        <v>0.3261371290339591</v>
       </c>
       <c r="P6">
-        <v>0.4696067444127991</v>
+        <v>0.3261371290339591</v>
       </c>
       <c r="Q6">
-        <v>199.226816074225</v>
+        <v>0.3528949132188889</v>
       </c>
       <c r="R6">
-        <v>199.226816074225</v>
+        <v>3.17605421897</v>
       </c>
       <c r="S6">
-        <v>0.08904539890243356</v>
+        <v>0.0001410501265738029</v>
       </c>
       <c r="T6">
-        <v>0.08904539890243356</v>
+        <v>0.0001410501265738029</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,619 +838,1549 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>56.7501948198675</v>
+        <v>1.448602</v>
       </c>
       <c r="H7">
-        <v>56.7501948198675</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I7">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="J7">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.45710433948401</v>
+        <v>1.784940333333333</v>
       </c>
       <c r="N7">
-        <v>2.45710433948401</v>
+        <v>5.354821</v>
       </c>
       <c r="O7">
-        <v>0.328683185122893</v>
+        <v>0.2226931997744963</v>
       </c>
       <c r="P7">
-        <v>0.328683185122893</v>
+        <v>0.2226931997744964</v>
       </c>
       <c r="Q7">
-        <v>139.4411499584594</v>
+        <v>2.585668136747334</v>
       </c>
       <c r="R7">
-        <v>139.4411499584594</v>
+        <v>23.27101323072601</v>
       </c>
       <c r="S7">
-        <v>0.06232390330847372</v>
+        <v>0.001033477118271308</v>
       </c>
       <c r="T7">
-        <v>0.06232390330847372</v>
+        <v>0.001033477118271308</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>78.6615799112946</v>
+        <v>1.448602</v>
       </c>
       <c r="H8">
-        <v>78.6615799112946</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I8">
-        <v>0.2628285060016857</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="J8">
-        <v>0.2628285060016857</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.50790399962251</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N8">
-        <v>1.50790399962251</v>
+        <v>10.727147</v>
       </c>
       <c r="O8">
-        <v>0.2017100704643079</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="P8">
-        <v>0.2017100704643079</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="Q8">
-        <v>118.6141109648668</v>
+        <v>5.179788866164667</v>
       </c>
       <c r="R8">
-        <v>118.6141109648668</v>
+        <v>46.61809979548201</v>
       </c>
       <c r="S8">
-        <v>0.05301515646562878</v>
+        <v>0.002070332690641331</v>
       </c>
       <c r="T8">
-        <v>0.05301515646562878</v>
+        <v>0.002070332690641332</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>78.6615799112946</v>
+        <v>1.448602</v>
       </c>
       <c r="H9">
-        <v>78.6615799112946</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I9">
-        <v>0.2628285060016857</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="J9">
-        <v>0.2628285060016857</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.51059263684639</v>
+        <v>0.02040433333333333</v>
       </c>
       <c r="N9">
-        <v>3.51059263684639</v>
+        <v>0.061213</v>
       </c>
       <c r="O9">
-        <v>0.4696067444127991</v>
+        <v>0.002545690852746758</v>
       </c>
       <c r="P9">
-        <v>0.4696067444127991</v>
+        <v>0.002545690852746758</v>
       </c>
       <c r="Q9">
-        <v>276.1487632392947</v>
+        <v>0.02955775807533334</v>
       </c>
       <c r="R9">
-        <v>276.1487632392947</v>
+        <v>0.266019822678</v>
       </c>
       <c r="S9">
-        <v>0.1234260390423314</v>
+        <v>1.181407087944519E-05</v>
       </c>
       <c r="T9">
-        <v>0.1234260390423314</v>
+        <v>1.181407087944519E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>78.6615799112946</v>
+        <v>1.448602</v>
       </c>
       <c r="H10">
-        <v>78.6615799112946</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I10">
-        <v>0.2628285060016857</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="J10">
-        <v>0.2628285060016857</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.45710433948401</v>
+        <v>0.020115</v>
       </c>
       <c r="N10">
-        <v>2.45710433948401</v>
+        <v>0.060345</v>
       </c>
       <c r="O10">
-        <v>0.328683185122893</v>
+        <v>0.002509592970594532</v>
       </c>
       <c r="P10">
-        <v>0.328683185122893</v>
+        <v>0.002509592970594532</v>
       </c>
       <c r="Q10">
-        <v>193.2797093507102</v>
+        <v>0.02913862923</v>
       </c>
       <c r="R10">
-        <v>193.2797093507102</v>
+        <v>0.26224766307</v>
       </c>
       <c r="S10">
-        <v>0.08638731049372544</v>
+        <v>1.164654741999444E-05</v>
       </c>
       <c r="T10">
-        <v>0.08638731049372544</v>
+        <v>1.164654741999444E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>160.104519420532</v>
+        <v>1.448602</v>
       </c>
       <c r="H11">
-        <v>160.104519420532</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I11">
-        <v>0.5349502475143427</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="J11">
-        <v>0.5349502475143427</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.50790399962251</v>
+        <v>2.614068666666667</v>
       </c>
       <c r="N11">
-        <v>1.50790399962251</v>
+        <v>7.842206</v>
       </c>
       <c r="O11">
-        <v>0.2017100704643079</v>
+        <v>0.3261371290339591</v>
       </c>
       <c r="P11">
-        <v>0.2017100704643079</v>
+        <v>0.3261371290339591</v>
       </c>
       <c r="Q11">
-        <v>241.42224519186</v>
+        <v>3.786745098670667</v>
       </c>
       <c r="R11">
-        <v>241.42224519186</v>
+        <v>34.08070588803601</v>
       </c>
       <c r="S11">
-        <v>0.107904852121017</v>
+        <v>0.001513540874245836</v>
       </c>
       <c r="T11">
-        <v>0.107904852121017</v>
+        <v>0.001513540874245836</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>160.104519420532</v>
+        <v>63.544816</v>
       </c>
       <c r="H12">
-        <v>160.104519420532</v>
+        <v>190.634448</v>
       </c>
       <c r="I12">
-        <v>0.5349502475143427</v>
+        <v>0.2035752402950318</v>
       </c>
       <c r="J12">
-        <v>0.5349502475143427</v>
+        <v>0.2035752402950319</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.51059263684639</v>
+        <v>1.784940333333333</v>
       </c>
       <c r="N12">
-        <v>3.51059263684639</v>
+        <v>5.354821</v>
       </c>
       <c r="O12">
-        <v>0.4696067444127991</v>
+        <v>0.2226931997744963</v>
       </c>
       <c r="P12">
-        <v>0.4696067444127991</v>
+        <v>0.2226931997744964</v>
       </c>
       <c r="Q12">
-        <v>562.0617470035495</v>
+        <v>113.4237050526453</v>
       </c>
       <c r="R12">
-        <v>562.0617470035495</v>
+        <v>1020.813345473808</v>
       </c>
       <c r="S12">
-        <v>0.2512162441580316</v>
+        <v>0.04533482165616262</v>
       </c>
       <c r="T12">
-        <v>0.2512162441580316</v>
+        <v>0.04533482165616263</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>160.104519420532</v>
+        <v>63.544816</v>
       </c>
       <c r="H13">
-        <v>160.104519420532</v>
+        <v>190.634448</v>
       </c>
       <c r="I13">
-        <v>0.5349502475143427</v>
+        <v>0.2035752402950318</v>
       </c>
       <c r="J13">
-        <v>0.5349502475143427</v>
+        <v>0.2035752402950319</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.45710433948401</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N13">
-        <v>2.45710433948401</v>
+        <v>10.727147</v>
       </c>
       <c r="O13">
-        <v>0.328683185122893</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="P13">
-        <v>0.328683185122893</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="Q13">
-        <v>393.3935094391911</v>
+        <v>227.2181941066507</v>
       </c>
       <c r="R13">
-        <v>393.3935094391911</v>
+        <v>2044.963746959856</v>
       </c>
       <c r="S13">
-        <v>0.1758291512352942</v>
+        <v>0.09081784360755288</v>
       </c>
       <c r="T13">
-        <v>0.1758291512352942</v>
+        <v>0.09081784360755289</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.32922140286671</v>
+        <v>63.544816</v>
       </c>
       <c r="H14">
-        <v>2.32922140286671</v>
+        <v>190.634448</v>
       </c>
       <c r="I14">
-        <v>0.007782525880524646</v>
+        <v>0.2035752402950318</v>
       </c>
       <c r="J14">
-        <v>0.007782525880524646</v>
+        <v>0.2035752402950319</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1.50790399962251</v>
+        <v>0.02040433333333333</v>
       </c>
       <c r="N14">
-        <v>1.50790399962251</v>
+        <v>0.061213</v>
       </c>
       <c r="O14">
-        <v>0.2017100704643079</v>
+        <v>0.002545690852746758</v>
       </c>
       <c r="P14">
-        <v>0.2017100704643079</v>
+        <v>0.002545690852746758</v>
       </c>
       <c r="Q14">
-        <v>3.512242269389066</v>
+        <v>1.296589607269333</v>
       </c>
       <c r="R14">
-        <v>3.512242269389066</v>
+        <v>11.669306465424</v>
       </c>
       <c r="S14">
-        <v>0.001569813843750926</v>
+        <v>0.0005182396270647856</v>
       </c>
       <c r="T14">
-        <v>0.001569813843750926</v>
+        <v>0.0005182396270647857</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.32922140286671</v>
+        <v>63.544816</v>
       </c>
       <c r="H15">
-        <v>2.32922140286671</v>
+        <v>190.634448</v>
       </c>
       <c r="I15">
-        <v>0.007782525880524646</v>
+        <v>0.2035752402950318</v>
       </c>
       <c r="J15">
-        <v>0.007782525880524646</v>
+        <v>0.2035752402950319</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>3.51059263684639</v>
+        <v>0.020115</v>
       </c>
       <c r="N15">
-        <v>3.51059263684639</v>
+        <v>0.060345</v>
       </c>
       <c r="O15">
-        <v>0.4696067444127991</v>
+        <v>0.002509592970594532</v>
       </c>
       <c r="P15">
-        <v>0.4696067444127991</v>
+        <v>0.002509592970594532</v>
       </c>
       <c r="Q15">
-        <v>8.176947506488892</v>
+        <v>1.27820397384</v>
       </c>
       <c r="R15">
-        <v>8.176947506488892</v>
+        <v>11.50383576456</v>
       </c>
       <c r="S15">
-        <v>0.003654726642061532</v>
+        <v>0.0005108909920315045</v>
       </c>
       <c r="T15">
-        <v>0.003654726642061532</v>
+        <v>0.0005108909920315046</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>63.544816</v>
+      </c>
+      <c r="H16">
+        <v>190.634448</v>
+      </c>
+      <c r="I16">
+        <v>0.2035752402950318</v>
+      </c>
+      <c r="J16">
+        <v>0.2035752402950319</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.614068666666667</v>
+      </c>
+      <c r="N16">
+        <v>7.842206</v>
+      </c>
+      <c r="O16">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="P16">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="Q16">
+        <v>166.1105124346987</v>
+      </c>
+      <c r="R16">
+        <v>1494.994611912288</v>
+      </c>
+      <c r="S16">
+        <v>0.06639344441222002</v>
+      </c>
+      <c r="T16">
+        <v>0.06639344441222005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>80.516767</v>
+      </c>
+      <c r="H17">
+        <v>241.550301</v>
+      </c>
+      <c r="I17">
+        <v>0.257947401874672</v>
+      </c>
+      <c r="J17">
+        <v>0.257947401874672</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.784940333333333</v>
+      </c>
+      <c r="N17">
+        <v>5.354821</v>
+      </c>
+      <c r="O17">
+        <v>0.2226931997744963</v>
+      </c>
+      <c r="P17">
+        <v>0.2226931997744964</v>
+      </c>
+      <c r="Q17">
+        <v>143.7176249279023</v>
+      </c>
+      <c r="R17">
+        <v>1293.458624351121</v>
+      </c>
+      <c r="S17">
+        <v>0.05744313229698863</v>
+      </c>
+      <c r="T17">
+        <v>0.05744313229698864</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>80.516767</v>
+      </c>
+      <c r="H18">
+        <v>241.550301</v>
+      </c>
+      <c r="I18">
+        <v>0.257947401874672</v>
+      </c>
+      <c r="J18">
+        <v>0.257947401874672</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.575715666666667</v>
+      </c>
+      <c r="N18">
+        <v>10.727147</v>
+      </c>
+      <c r="O18">
+        <v>0.4461143873682032</v>
+      </c>
+      <c r="P18">
+        <v>0.4461143873682032</v>
+      </c>
+      <c r="Q18">
+        <v>287.9050651912497</v>
+      </c>
+      <c r="R18">
+        <v>2591.145586721247</v>
+      </c>
+      <c r="S18">
+        <v>0.115074047160539</v>
+      </c>
+      <c r="T18">
+        <v>0.115074047160539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>80.516767</v>
+      </c>
+      <c r="H19">
+        <v>241.550301</v>
+      </c>
+      <c r="I19">
+        <v>0.257947401874672</v>
+      </c>
+      <c r="J19">
+        <v>0.257947401874672</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.02040433333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.061213</v>
+      </c>
+      <c r="O19">
+        <v>0.002545690852746758</v>
+      </c>
+      <c r="P19">
+        <v>0.002545690852746758</v>
+      </c>
+      <c r="Q19">
+        <v>1.642890952790333</v>
+      </c>
+      <c r="R19">
+        <v>14.786018575113</v>
+      </c>
+      <c r="S19">
+        <v>0.0006566543414421444</v>
+      </c>
+      <c r="T19">
+        <v>0.0006566543414421444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>80.516767</v>
+      </c>
+      <c r="H20">
+        <v>241.550301</v>
+      </c>
+      <c r="I20">
+        <v>0.257947401874672</v>
+      </c>
+      <c r="J20">
+        <v>0.257947401874672</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.020115</v>
+      </c>
+      <c r="N20">
+        <v>0.060345</v>
+      </c>
+      <c r="O20">
+        <v>0.002509592970594532</v>
+      </c>
+      <c r="P20">
+        <v>0.002509592970594532</v>
+      </c>
+      <c r="Q20">
+        <v>1.619594768205</v>
+      </c>
+      <c r="R20">
+        <v>14.576352913845</v>
+      </c>
+      <c r="S20">
+        <v>0.0006473429865277997</v>
+      </c>
+      <c r="T20">
+        <v>0.0006473429865277997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>80.516767</v>
+      </c>
+      <c r="H21">
+        <v>241.550301</v>
+      </c>
+      <c r="I21">
+        <v>0.257947401874672</v>
+      </c>
+      <c r="J21">
+        <v>0.257947401874672</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.614068666666667</v>
+      </c>
+      <c r="N21">
+        <v>7.842206</v>
+      </c>
+      <c r="O21">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="P21">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="Q21">
+        <v>210.4763577560007</v>
+      </c>
+      <c r="R21">
+        <v>1894.287219804006</v>
+      </c>
+      <c r="S21">
+        <v>0.0841262250891744</v>
+      </c>
+      <c r="T21">
+        <v>0.08412622508917442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>164.0922063333333</v>
+      </c>
+      <c r="H22">
+        <v>492.276619</v>
+      </c>
+      <c r="I22">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="J22">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.784940333333333</v>
+      </c>
+      <c r="N22">
+        <v>5.354821</v>
+      </c>
+      <c r="O22">
+        <v>0.2226931997744963</v>
+      </c>
+      <c r="P22">
+        <v>0.2226931997744964</v>
+      </c>
+      <c r="Q22">
+        <v>292.8947974700221</v>
+      </c>
+      <c r="R22">
+        <v>2636.053177230199</v>
+      </c>
+      <c r="S22">
+        <v>0.1170684152943004</v>
+      </c>
+      <c r="T22">
+        <v>0.1170684152943004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>164.0922063333333</v>
+      </c>
+      <c r="H23">
+        <v>492.276619</v>
+      </c>
+      <c r="I23">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="J23">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.575715666666667</v>
+      </c>
+      <c r="N23">
+        <v>10.727147</v>
+      </c>
+      <c r="O23">
+        <v>0.4461143873682032</v>
+      </c>
+      <c r="P23">
+        <v>0.4461143873682032</v>
+      </c>
+      <c r="Q23">
+        <v>586.7470729639992</v>
+      </c>
+      <c r="R23">
+        <v>5280.723656675993</v>
+      </c>
+      <c r="S23">
+        <v>0.2345195292091012</v>
+      </c>
+      <c r="T23">
+        <v>0.2345195292091013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>164.0922063333333</v>
+      </c>
+      <c r="H24">
+        <v>492.276619</v>
+      </c>
+      <c r="I24">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="J24">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.02040433333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.061213</v>
+      </c>
+      <c r="O24">
+        <v>0.002545690852746758</v>
+      </c>
+      <c r="P24">
+        <v>0.002545690852746758</v>
+      </c>
+      <c r="Q24">
+        <v>3.348192075427444</v>
+      </c>
+      <c r="R24">
+        <v>30.133728678847</v>
+      </c>
+      <c r="S24">
+        <v>0.001338253679331206</v>
+      </c>
+      <c r="T24">
+        <v>0.001338253679331206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>164.0922063333333</v>
+      </c>
+      <c r="H25">
+        <v>492.276619</v>
+      </c>
+      <c r="I25">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="J25">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.020115</v>
+      </c>
+      <c r="N25">
+        <v>0.060345</v>
+      </c>
+      <c r="O25">
+        <v>0.002509592970594532</v>
+      </c>
+      <c r="P25">
+        <v>0.002509592970594532</v>
+      </c>
+      <c r="Q25">
+        <v>3.300714730395</v>
+      </c>
+      <c r="R25">
+        <v>29.706432573555</v>
+      </c>
+      <c r="S25">
+        <v>0.001319277249591454</v>
+      </c>
+      <c r="T25">
+        <v>0.001319277249591454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.32922140286671</v>
-      </c>
-      <c r="H16">
-        <v>2.32922140286671</v>
-      </c>
-      <c r="I16">
-        <v>0.007782525880524646</v>
-      </c>
-      <c r="J16">
-        <v>0.007782525880524646</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.45710433948401</v>
-      </c>
-      <c r="N16">
-        <v>2.45710433948401</v>
-      </c>
-      <c r="O16">
-        <v>0.328683185122893</v>
-      </c>
-      <c r="P16">
-        <v>0.328683185122893</v>
-      </c>
-      <c r="Q16">
-        <v>5.723140016602827</v>
-      </c>
-      <c r="R16">
-        <v>5.723140016602827</v>
-      </c>
-      <c r="S16">
-        <v>0.002557985394712188</v>
-      </c>
-      <c r="T16">
-        <v>0.002557985394712188</v>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>164.0922063333333</v>
+      </c>
+      <c r="H26">
+        <v>492.276619</v>
+      </c>
+      <c r="I26">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="J26">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.614068666666667</v>
+      </c>
+      <c r="N26">
+        <v>7.842206</v>
+      </c>
+      <c r="O26">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="P26">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="Q26">
+        <v>428.9482950201682</v>
+      </c>
+      <c r="R26">
+        <v>3860.534655181514</v>
+      </c>
+      <c r="S26">
+        <v>0.17144823866782</v>
+      </c>
+      <c r="T26">
+        <v>0.17144823866782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.406739</v>
+      </c>
+      <c r="H27">
+        <v>7.220217</v>
+      </c>
+      <c r="I27">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="J27">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.784940333333333</v>
+      </c>
+      <c r="N27">
+        <v>5.354821</v>
+      </c>
+      <c r="O27">
+        <v>0.2226931997744963</v>
+      </c>
+      <c r="P27">
+        <v>0.2226931997744964</v>
+      </c>
+      <c r="Q27">
+        <v>4.295885512906334</v>
+      </c>
+      <c r="R27">
+        <v>38.662969616157</v>
+      </c>
+      <c r="S27">
+        <v>0.001717041455245242</v>
+      </c>
+      <c r="T27">
+        <v>0.001717041455245243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.406739</v>
+      </c>
+      <c r="H28">
+        <v>7.220217</v>
+      </c>
+      <c r="I28">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="J28">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.575715666666667</v>
+      </c>
+      <c r="N28">
+        <v>10.727147</v>
+      </c>
+      <c r="O28">
+        <v>0.4461143873682032</v>
+      </c>
+      <c r="P28">
+        <v>0.4461143873682032</v>
+      </c>
+      <c r="Q28">
+        <v>8.605814347877667</v>
+      </c>
+      <c r="R28">
+        <v>77.452329130899</v>
+      </c>
+      <c r="S28">
+        <v>0.003439695947914905</v>
+      </c>
+      <c r="T28">
+        <v>0.003439695947914905</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.406739</v>
+      </c>
+      <c r="H29">
+        <v>7.220217</v>
+      </c>
+      <c r="I29">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="J29">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.02040433333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.061213</v>
+      </c>
+      <c r="O29">
+        <v>0.002545690852746758</v>
+      </c>
+      <c r="P29">
+        <v>0.002545690852746758</v>
+      </c>
+      <c r="Q29">
+        <v>0.04910790480233333</v>
+      </c>
+      <c r="R29">
+        <v>0.441971143221</v>
+      </c>
+      <c r="S29">
+        <v>1.962815537623518E-05</v>
+      </c>
+      <c r="T29">
+        <v>1.962815537623518E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.406739</v>
+      </c>
+      <c r="H30">
+        <v>7.220217</v>
+      </c>
+      <c r="I30">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="J30">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.020115</v>
+      </c>
+      <c r="N30">
+        <v>0.060345</v>
+      </c>
+      <c r="O30">
+        <v>0.002509592970594532</v>
+      </c>
+      <c r="P30">
+        <v>0.002509592970594532</v>
+      </c>
+      <c r="Q30">
+        <v>0.048411554985</v>
+      </c>
+      <c r="R30">
+        <v>0.435703994865</v>
+      </c>
+      <c r="S30">
+        <v>1.934982824202231E-05</v>
+      </c>
+      <c r="T30">
+        <v>1.934982824202231E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.406739</v>
+      </c>
+      <c r="H31">
+        <v>7.220217</v>
+      </c>
+      <c r="I31">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="J31">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.614068666666667</v>
+      </c>
+      <c r="N31">
+        <v>7.842206</v>
+      </c>
+      <c r="O31">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="P31">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="Q31">
+        <v>6.291381008744667</v>
+      </c>
+      <c r="R31">
+        <v>56.622429078702</v>
+      </c>
+      <c r="S31">
+        <v>0.002514629863925045</v>
+      </c>
+      <c r="T31">
+        <v>0.002514629863925045</v>
       </c>
     </row>
   </sheetData>
